--- a/Хисамов И.Р. Практика №10.xlsx
+++ b/Хисамов И.Р. Практика №10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B0CF9-D910-4D56-8129-69AA7B08D8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AABD37-52AE-44DC-BEB8-FE07BE982474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7D8CF4E0-8C4C-46AD-8611-86272F63E65C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>11sin3pix-5+6x</t>
   </si>
@@ -68,12 +68,15 @@
   <si>
     <t>l</t>
   </si>
+  <si>
+    <t>λ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,8 +85,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,13 +207,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -404,25 +426,25 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-14.162805337889903</c:v>
+                  <c:v>5.9126748576241539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-11.086932742141386</c:v>
+                  <c:v>4.2781745930520234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3560184121184111</c:v>
+                  <c:v>-6.9595177560159875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7295431807488306</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8560184121184236</c:v>
+                  <c:v>-5.4595177560159946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-8.0869327421413928</c:v>
+                  <c:v>7.2781745930520207</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.6628053378898997</c:v>
+                  <c:v>10.412674857624154</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -474,25 +496,25 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4190793559315722</c:v>
+                  <c:v>3.4555489601347631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9003929514766593</c:v>
+                  <c:v>-0.93067406269012887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7550638048885929</c:v>
+                  <c:v>-3.4888078251832049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-12.465736078868492</c:v>
+                  <c:v>-1.1345736078342448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.255063804888632</c:v>
+                  <c:v>3.151335028315521</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9003929514767037</c:v>
+                  <c:v>4.0033152782203247</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9190793559315509</c:v>
+                  <c:v>0.65540610663603616</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -544,25 +566,25 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.681345860686804</c:v>
+                  <c:v>-9.6895721886516561</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.718439611579884</c:v>
+                  <c:v>-6.7134350189439029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.156591366927973</c:v>
+                  <c:v>2.8288864023499318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2084151978671223</c:v>
+                  <c:v>12.80371659903812</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6565913669281294</c:v>
+                  <c:v>9.9016730910801893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.7184396115800791</c:v>
+                  <c:v>-3.2884116471235925</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.1813458606866867</c:v>
+                  <c:v>-10.654948541289345</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -614,25 +636,25 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.949457514983159</c:v>
+                  <c:v>-14.058201361608884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5409599554616147</c:v>
+                  <c:v>-4.1742767736434718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.5605400691819593</c:v>
+                  <c:v>9.5266190270109234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11.957421061137907</c:v>
+                  <c:v>16.504931749757063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.0605400691826157</c:v>
+                  <c:v>4.9134685526133977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5409599554624833</c:v>
+                  <c:v>-11.77708449932739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.4494575149825835</c:v>
+                  <c:v>-12.749912046521905</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -684,25 +706,25 @@
                   <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-13.223270604224368</c:v>
+                  <c:v>-6.5049255542077162</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10.367843988733634</c:v>
+                  <c:v>6.4313132388594569</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9668503831182429</c:v>
+                  <c:v>10.8679255907357</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7125981131200803</c:v>
+                  <c:v>4.8930131909269878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4668503831210735</c:v>
+                  <c:v>-9.5542087736475825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.3678439887375138</c:v>
+                  <c:v>-13.55510519095629</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.7232706042217103</c:v>
+                  <c:v>-1.0651884585008329</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -1585,6 +1607,358 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Метод конечных разностей</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$9:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.058201361608884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.1742767736434718</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5266190270109234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.504931749757063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9134685526133977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.77708449932739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.749912046521905</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DD4-41E0-BC28-4C036BB30055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Метод Даламбера</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$32:$J$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13.915278146332373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.897483631603532</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2534892923191592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4616216792466901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.753489292319161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.8974836316035324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.4152781463323763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DD4-41E0-BC28-4C036BB30055}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1575051536"/>
+        <c:axId val="1575048208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1575051536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575048208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1575048208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575051536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1665,6 +2039,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2182,6 +2596,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2818,22 +3748,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400428</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>372364</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>47690</xdr:rowOff>
+      <xdr:rowOff>114382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1F7FCB-C46E-45D3-864A-12EB1E712442}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F713267-3852-4754-B802-0B88922EDC01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,65 +3779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6229350" y="2247900"/>
-          <a:ext cx="2705478" cy="466790"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>210439</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123907</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F713267-3852-4754-B802-0B88922EDC01}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9077325" y="2200275"/>
+          <a:off x="6191250" y="2190750"/>
           <a:ext cx="6373114" cy="590632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2958,7 +3830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3016,7 +3888,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3073,7 +3945,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3109,7 +3981,391 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>220447</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF38F92-B01C-4284-92AD-FEFD0B9D9460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="5743575"/>
+          <a:ext cx="9831172" cy="1895740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>48391</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38474</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339CD2E3-C7A9-4F55-92D2-DCC1268AD98F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="7839075"/>
+          <a:ext cx="5487166" cy="2676899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>238683</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD989E2-3E03-4F81-9E0F-A88B51883792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12696825" y="1390650"/>
+          <a:ext cx="4001058" cy="1238423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>562919</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F56D03A-A988-47BF-B8A2-D8DF2359FE9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13306425" y="742950"/>
+          <a:ext cx="6763694" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419596</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127D07ED-A1B1-48A2-AB34-A1EB95AF466A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13325475" y="85725"/>
+          <a:ext cx="3553321" cy="504895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>486240</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB3DCAF-23BE-43C0-A05E-272A218BE9D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="7829550"/>
+          <a:ext cx="3334215" cy="2705478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Диаграмма 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED2D3C5-E172-4BE3-8BD3-8757F83704EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3418,7 +4674,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,10 +4689,10 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3463,10 +4719,10 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -3486,6 +4742,15 @@
       <c r="J2" s="4">
         <f>0.125</f>
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10">
+        <f>(F2*I2^2)/J2^2</f>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3578,32 +4843,32 @@
         <v>-5</v>
       </c>
       <c r="C6" s="5">
-        <f>C5+($G$2*0.005/($J$2^2))*(D5-2*C5+B5)</f>
-        <v>-14.162805337889903</v>
+        <f>C5+0*I2</f>
+        <v>5.9126748576241539</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ref="D6:J7" si="9">D5+($G$2*0.005/($J$2^2))*(E5-2*D5+C5)</f>
-        <v>-11.086932742141386</v>
+        <f t="shared" ref="D6:I6" si="9">D5+0*J2</f>
+        <v>4.2781745930520234</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="9"/>
-        <v>1.3560184121184111</v>
+        <v>-6.9595177560159875</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="9"/>
-        <v>8.7295431807488306</v>
+        <v>-13</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="9"/>
-        <v>2.8560184121184236</v>
+        <v>-5.4595177560159946</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="9"/>
-        <v>-8.0869327421413928</v>
+        <v>7.2781745930520207</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="9"/>
-        <v>-9.6628053378898997</v>
+        <v>10.412674857624154</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
@@ -3618,32 +4883,32 @@
         <v>-5</v>
       </c>
       <c r="C7" s="5">
-        <f>C6+($G$2*0.005/($J$2^2))*(D6-2*C6+B6)</f>
-        <v>5.4190793559315722</v>
+        <f>2*(1-$H$3)*C6+$H$3*(0-B6)-C5</f>
+        <v>3.4555489601347631</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="9"/>
-        <v>3.9003929514766593</v>
+        <f>2*(1-$H$3)*D6+$H$3*(0-C6)-D5</f>
+        <v>-0.93067406269012887</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="9"/>
-        <v>-6.7550638048885929</v>
+        <f>2*(1-$H$3)*E6+$H$3*(0-D6)-E5</f>
+        <v>-3.4888078251832049</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="9"/>
-        <v>-12.465736078868492</v>
+        <f>2*(1-$H$3)*F6+$H$3*(0-E6)-F5</f>
+        <v>-1.1345736078342448</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="9"/>
-        <v>-5.255063804888632</v>
+        <f>2*(1-$H$3)*G6+$H$3*(0-F6)-G5</f>
+        <v>3.151335028315521</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="9"/>
-        <v>6.9003929514767037</v>
+        <f>2*(1-$H$3)*H6+$H$3*(0-G6)-H5</f>
+        <v>4.0033152782203247</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="9"/>
-        <v>9.9190793559315509</v>
+        <f>2*(1-$H$3)*I6+$H$3*(J6-H6)-I5</f>
+        <v>0.65540610663603616</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -3658,32 +4923,32 @@
         <v>-5</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C7:C10" si="10">C7+($G$2*0.005/($J$2^2))*(D7-2*C7+B7)</f>
-        <v>-13.681345860686804</v>
+        <f>2*(1-$H$3)*C7+$H$3*(0-B7)-C6-10</f>
+        <v>-9.6895721886516561</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D7:D10" si="11">D7+($G$2*0.005/($J$2^2))*(E7-2*D7+C7)</f>
-        <v>-10.718439611579884</v>
+        <f t="shared" ref="D8:D10" si="10">2*(1-$H$3)*D7+$H$3*(0-C7)-D6</f>
+        <v>-6.7134350189439029</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E7:E10" si="12">E7+($G$2*0.005/($J$2^2))*(F7-2*E7+D7)</f>
-        <v>1.156591366927973</v>
+        <f t="shared" ref="E8:E10" si="11">2*(1-$H$3)*E7+$H$3*(0-D7)-E6</f>
+        <v>2.8288864023499318</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F7:F10" si="13">F7+($G$2*0.005/($J$2^2))*(G7-2*F7+E7)</f>
-        <v>8.2084151978671223</v>
+        <f t="shared" ref="F8:F10" si="12">2*(1-$H$3)*F7+$H$3*(0-E7)-F6</f>
+        <v>12.80371659903812</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" ref="G7:G10" si="14">G7+($G$2*0.005/($J$2^2))*(H7-2*G7+F7)</f>
-        <v>2.6565913669281294</v>
+        <f t="shared" ref="G8:G10" si="13">2*(1-$H$3)*G7+$H$3*(0-F7)-G6</f>
+        <v>9.9016730910801893</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" ref="H7:H10" si="15">H7+($G$2*0.005/($J$2^2))*(I7-2*H7+G7)</f>
-        <v>-7.7184396115800791</v>
+        <f t="shared" ref="H8:H10" si="14">2*(1-$H$3)*H7+$H$3*(0-G7)-H6</f>
+        <v>-3.2884116471235925</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ref="I7:I10" si="16">I7+($G$2*0.005/($J$2^2))*(J7-2*I7+H7)</f>
-        <v>-9.1813458606866867</v>
+        <f t="shared" ref="I8:I10" si="15">2*(1-$H$3)*I7+$H$3*(J7-H7)-I6</f>
+        <v>-10.654948541289345</v>
       </c>
       <c r="J8" s="5">
         <v>1</v>
@@ -3698,32 +4963,32 @@
         <v>-5</v>
       </c>
       <c r="C9" s="5">
+        <f>2*(1-$H$3)*C8+$H$3*(0-B8)-C7</f>
+        <v>-14.058201361608884</v>
+      </c>
+      <c r="D9" s="5">
         <f t="shared" si="10"/>
-        <v>4.949457514983159</v>
-      </c>
-      <c r="D9" s="5">
+        <v>-4.1742767736434718</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="11"/>
-        <v>3.5409599554616147</v>
-      </c>
-      <c r="E9" s="5">
+        <v>9.5266190270109234</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="12"/>
-        <v>-6.5605400691819593</v>
-      </c>
-      <c r="F9" s="5">
+        <v>16.504931749757063</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="13"/>
-        <v>-11.957421061137907</v>
-      </c>
-      <c r="G9" s="5">
+        <v>4.9134685526133977</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="14"/>
-        <v>-5.0605400691826157</v>
-      </c>
-      <c r="H9" s="5">
+        <v>-11.77708449932739</v>
+      </c>
+      <c r="I9" s="5">
         <f t="shared" si="15"/>
-        <v>6.5409599554624833</v>
-      </c>
-      <c r="I9" s="5">
-        <f t="shared" si="16"/>
-        <v>9.4494575149825835</v>
+        <v>-12.749912046521905</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -3738,315 +5003,315 @@
         <v>-5</v>
       </c>
       <c r="C10" s="5">
+        <f>2*(1-$H$3)*C9+$H$3*(0-B9)-C8</f>
+        <v>-6.5049255542077162</v>
+      </c>
+      <c r="D10" s="5">
         <f t="shared" si="10"/>
-        <v>-13.223270604224368</v>
-      </c>
-      <c r="D10" s="5">
+        <v>6.4313132388594569</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="11"/>
-        <v>-10.367843988733634</v>
-      </c>
-      <c r="E10" s="5">
+        <v>10.8679255907357</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="12"/>
-        <v>0.9668503831182429</v>
-      </c>
-      <c r="F10" s="5">
+        <v>4.8930131909269878</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="13"/>
-        <v>7.7125981131200803</v>
-      </c>
-      <c r="G10" s="5">
+        <v>-9.5542087736475825</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="14"/>
-        <v>2.4668503831210735</v>
-      </c>
-      <c r="H10" s="5">
+        <v>-13.55510519095629</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="15"/>
-        <v>-7.3678439887375138</v>
-      </c>
-      <c r="I10" s="5">
-        <f t="shared" si="16"/>
-        <v>-8.7232706042217103</v>
+        <v>-1.0651884585008329</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>0</v>
       </c>
-      <c r="C27" s="8">
-        <f t="shared" ref="C27:H27" si="17">B27+$J$2</f>
+      <c r="C27" s="6">
+        <f t="shared" ref="C27:H27" si="16">B27+$J$2</f>
         <v>0.125</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.375</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.625</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" ref="I27:J27" si="17">H27+$J$2</f>
+        <v>0.875</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="17"/>
-        <v>0.25</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="17"/>
-        <v>0.375</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="17"/>
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="17"/>
-        <v>0.625</v>
-      </c>
-      <c r="H27" s="8">
-        <f t="shared" si="17"/>
-        <v>0.75</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" ref="I27:J27" si="18">H27+$J$2</f>
-        <v>0.875</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>0</v>
       </c>
-      <c r="B28" s="8">
-        <f t="shared" ref="B28" si="19">11*SIN(3*PI()*B27)-5+6*B27</f>
+      <c r="B28" s="6">
+        <f t="shared" ref="B28" si="18">11*SIN(3*PI()*B27)-5+6*B27</f>
         <v>-5</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="6">
         <f>11*SIN(3*PI()*C27)-5+6*C27</f>
         <v>5.9126748576241539</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" ref="D28" si="20">11*SIN(3*PI()*D27)-5+6*D27</f>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28" si="19">11*SIN(3*PI()*D27)-5+6*D27</f>
         <v>4.2781745930520234</v>
       </c>
-      <c r="E28" s="8">
-        <f t="shared" ref="E28" si="21">11*SIN(3*PI()*E27)-5+6*E27</f>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28" si="20">11*SIN(3*PI()*E27)-5+6*E27</f>
         <v>-6.9595177560159875</v>
       </c>
-      <c r="F28" s="8">
-        <f t="shared" ref="F28" si="22">11*SIN(3*PI()*F27)-5+6*F27</f>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28" si="21">11*SIN(3*PI()*F27)-5+6*F27</f>
         <v>-13</v>
       </c>
-      <c r="G28" s="8">
-        <f t="shared" ref="G28" si="23">11*SIN(3*PI()*G27)-5+6*G27</f>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28" si="22">11*SIN(3*PI()*G27)-5+6*G27</f>
         <v>-5.4595177560159946</v>
       </c>
-      <c r="H28" s="8">
-        <f t="shared" ref="H28" si="24">11*SIN(3*PI()*H27)-5+6*H27</f>
+      <c r="H28" s="6">
+        <f t="shared" ref="H28" si="23">11*SIN(3*PI()*H27)-5+6*H27</f>
         <v>7.2781745930520207</v>
       </c>
-      <c r="I28" s="8">
-        <f t="shared" ref="I28:J28" si="25">11*SIN(3*PI()*I27)-5+6*I27</f>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28:J28" si="24">11*SIN(3*PI()*I27)-5+6*I27</f>
         <v>10.412674857624154</v>
       </c>
-      <c r="J28" s="8">
-        <f t="shared" si="25"/>
+      <c r="J28" s="6">
+        <f t="shared" si="24"/>
         <v>1.0000000000000044</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <f>A28+$I$2</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>-5</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="6">
         <f>((11*SIN(3*PI()*($C$27-$G$2*A29))-5+6*$C$27)+(11*SIN(3*PI()*($C$27+$G$2*A29))-5+6*$C$27))/2</f>
         <v>3.4777585881908522</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="6">
         <f>((11*SIN(3*PI()*($D$27-$G$2*A29))-5+6*$D$27)+(11*SIN(3*PI()*($D$27+$G$2*A29))-5+6*$D$27))/2</f>
         <v>2.4145703620353514</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="6">
         <f>((11*SIN(3*PI()*(E$27-$G$2*$A29))-5+6*E$27)+(11*SIN(3*PI()*(E$27+$G$2*$A29))-5+6*E$27))/2</f>
         <v>-5.9509424139738112</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" ref="F29:I33" si="26">((11*SIN(3*PI()*(F$27-$G$2*$A29))-5+6*F$27)+(11*SIN(3*PI()*(F$27+$G$2*$A29))-5+6*F$27))/2</f>
+      <c r="F29" s="6">
+        <f t="shared" ref="F29:I33" si="25">((11*SIN(3*PI()*(F$27-$G$2*$A29))-5+6*F$27)+(11*SIN(3*PI()*(F$27+$G$2*$A29))-5+6*F$27))/2</f>
         <v>-10.364465621600342</v>
       </c>
-      <c r="G29" s="8">
-        <f t="shared" si="26"/>
+      <c r="G29" s="6">
+        <f t="shared" si="25"/>
         <v>-4.4509424139738138</v>
       </c>
-      <c r="H29" s="8">
-        <f t="shared" si="26"/>
+      <c r="H29" s="6">
+        <f t="shared" si="25"/>
         <v>5.4145703620353522</v>
       </c>
-      <c r="I29" s="8">
-        <f t="shared" si="26"/>
+      <c r="I29" s="6">
+        <f t="shared" si="25"/>
         <v>7.9777585881908575</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <f>A29+$I$2</f>
         <v>0.03</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>-5</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="6">
         <f>((11*SIN(3*PI()*($C$27-$G$2*A30))-5+6*$C$27)+(11*SIN(3*PI()*($C$27+$G$2*A30))-5+6*$C$27))/2</f>
         <v>-2.6602073952697602</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" ref="D30:D33" si="27">((11*SIN(3*PI()*($D$27-$G$2*A30))-5+6*$D$27)+(11*SIN(3*PI()*($D$27+$G$2*A30))-5+6*$D$27))/2</f>
+      <c r="D30" s="6">
+        <f t="shared" ref="D30:D33" si="26">((11*SIN(3*PI()*($D$27-$G$2*A30))-5+6*$D$27)+(11*SIN(3*PI()*($D$27+$G$2*A30))-5+6*$D$27))/2</f>
         <v>-2.2832254185463903</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <f>((11*SIN(3*PI()*(E$27-$G$2*$A30))-5+6*E$27)+(11*SIN(3*PI()*(E$27+$G$2*$A30))-5+6*E$27))/2</f>
         <v>-3.4085136582397135</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <f>((11*SIN(3*PI()*(F$27-$G$2*$A30))-5+6*F$27)+(11*SIN(3*PI()*(F$27+$G$2*$A30))-5+6*F$27))/2</f>
         <v>-3.7207791154425398</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
         <f>((11*SIN(3*PI()*(G$27-$G$2*$A30))-5+6*G$27)+(11*SIN(3*PI()*(G$27+$G$2*$A30))-5+6*G$27))/2</f>
         <v>-1.9085136582397126</v>
       </c>
-      <c r="H30" s="8">
-        <f t="shared" si="26"/>
+      <c r="H30" s="6">
+        <f t="shared" si="25"/>
         <v>0.71677458145360884</v>
       </c>
-      <c r="I30" s="8">
-        <f t="shared" si="26"/>
+      <c r="I30" s="6">
+        <f t="shared" si="25"/>
         <v>1.8397926047302402</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <f>A30+$I$2</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>-5</v>
       </c>
-      <c r="C31" s="8">
-        <f t="shared" ref="C30:C33" si="28">((11*SIN(3*PI()*($C$27-$G$2*A31))-5+6*$C$27)+(11*SIN(3*PI()*($C$27+$G$2*A31))-5+6*$C$27))/2</f>
+      <c r="C31" s="6">
+        <f t="shared" ref="C31:C33" si="27">((11*SIN(3*PI()*($C$27-$G$2*A31))-5+6*$C$27)+(11*SIN(3*PI()*($C$27+$G$2*A31))-5+6*$C$27))/2</f>
         <v>-9.5599830267834776</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" si="27"/>
+      <c r="D31" s="6">
+        <f t="shared" si="26"/>
         <v>-7.5640850609797399</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" ref="E30:E33" si="29">((11*SIN(3*PI()*(E$27-$G$2*$A31))-5+6*E$27)+(11*SIN(3*PI()*(E$27+$G$2*$A31))-5+6*E$27))/2</f>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:E32" si="28">((11*SIN(3*PI()*(E$27-$G$2*$A31))-5+6*E$27)+(11*SIN(3*PI()*(E$27+$G$2*$A31))-5+6*E$27))/2</f>
         <v>-0.55053301433534596</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="26"/>
+      <c r="F31" s="6">
+        <f t="shared" si="25"/>
         <v>3.7474842118754346</v>
       </c>
-      <c r="G31" s="8">
-        <f t="shared" si="26"/>
+      <c r="G31" s="6">
+        <f t="shared" si="25"/>
         <v>0.9494669856646567</v>
       </c>
-      <c r="H31" s="8">
-        <f t="shared" si="26"/>
+      <c r="H31" s="6">
+        <f t="shared" si="25"/>
         <v>-4.5640850609797425</v>
       </c>
-      <c r="I31" s="8">
-        <f t="shared" si="26"/>
+      <c r="I31" s="6">
+        <f t="shared" si="25"/>
         <v>-5.0599830267834811</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <f>A31+$I$2</f>
         <v>0.06</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>-5</v>
       </c>
-      <c r="C32" s="8">
-        <f t="shared" si="28"/>
+      <c r="C32" s="6">
+        <f t="shared" si="27"/>
         <v>-13.915278146332373</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <f>((11*SIN(3*PI()*($D$27-$G$2*A32))-5+6*$D$27)+(11*SIN(3*PI()*($D$27+$G$2*A32))-5+6*$D$27))/2</f>
         <v>-10.897483631603532</v>
       </c>
-      <c r="E32" s="8">
-        <f t="shared" si="29"/>
+      <c r="E32" s="6">
+        <f t="shared" si="28"/>
         <v>1.2534892923191592</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="26"/>
+      <c r="F32" s="6">
+        <f t="shared" si="25"/>
         <v>8.4616216792466901</v>
       </c>
-      <c r="G32" s="8">
-        <f t="shared" si="26"/>
+      <c r="G32" s="6">
+        <f t="shared" si="25"/>
         <v>2.753489292319161</v>
       </c>
-      <c r="H32" s="8">
-        <f t="shared" si="26"/>
+      <c r="H32" s="6">
+        <f t="shared" si="25"/>
         <v>-7.8974836316035324</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <f>((11*SIN(3*PI()*(I$27-$G$2*$A32))-5+6*I$27)+(11*SIN(3*PI()*(I$27+$G$2*$A32))-5+6*I$27))/2</f>
         <v>-9.4152781463323763</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <f>A32+$I$2</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <v>-5</v>
       </c>
-      <c r="C33" s="8">
-        <f t="shared" si="28"/>
+      <c r="C33" s="6">
+        <f t="shared" si="27"/>
         <v>-13.639087296526011</v>
       </c>
-      <c r="D33" s="8">
-        <f t="shared" si="27"/>
+      <c r="D33" s="6">
+        <f t="shared" si="26"/>
         <v>-10.686096306820074</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="6">
         <f>((11*SIN(3*PI()*(E$27-$G$2*$A33))-5+6*E$27)+(11*SIN(3*PI()*(E$27+$G$2*$A33))-5+6*E$27))/2</f>
         <v>1.1390872965260104</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="26"/>
+      <c r="F33" s="6">
+        <f t="shared" si="25"/>
         <v>8.1626748576241539</v>
       </c>
-      <c r="G33" s="8">
-        <f t="shared" si="26"/>
+      <c r="G33" s="6">
+        <f t="shared" si="25"/>
         <v>2.6390872965260139</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" si="26"/>
+      <c r="H33" s="6">
+        <f t="shared" si="25"/>
         <v>-7.6860963068200689</v>
       </c>
-      <c r="I33" s="8">
-        <f t="shared" si="26"/>
+      <c r="I33" s="6">
+        <f t="shared" si="25"/>
         <v>-9.1390872965260161</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4056,6 +5321,7 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>